--- a/research/grades.xlsx
+++ b/research/grades.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luoyao/Downloads/GitHub/IO2/research/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{629FDB67-DDE3-BD44-A6C6-0CA56631D1FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66401711-850C-B945-BBAD-35C69CC6336A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13840" yWindow="500" windowWidth="19000" windowHeight="19400" activeTab="1" xr2:uid="{A71709E0-E5F7-7440-A3C8-FD4C534A5A58}"/>
+    <workbookView xWindow="13840" yWindow="500" windowWidth="19000" windowHeight="19400" xr2:uid="{A71709E0-E5F7-7440-A3C8-FD4C534A5A58}"/>
   </bookViews>
   <sheets>
     <sheet name="students" sheetId="1" r:id="rId1"/>
@@ -2708,7 +2708,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2723,6 +2723,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -18240,10 +18241,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75CF4074-33A6-A54D-9589-6D5DD55BD2DB}">
-  <dimension ref="A1:E409"/>
+  <dimension ref="A1:H409"/>
   <sheetViews>
-    <sheetView topLeftCell="G17" workbookViewId="0">
-      <selection activeCell="M37" sqref="M37"/>
+    <sheetView tabSelected="1" topLeftCell="A228" workbookViewId="0">
+      <selection activeCell="H249" sqref="H249"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -21189,7 +21190,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
         <v>240</v>
       </c>
@@ -21201,7 +21202,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
         <v>241</v>
       </c>
@@ -21213,7 +21214,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
         <v>242</v>
       </c>
@@ -21225,7 +21226,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
         <v>243</v>
       </c>
@@ -21237,7 +21238,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
         <v>244</v>
       </c>
@@ -21249,7 +21250,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
         <v>245</v>
       </c>
@@ -21261,7 +21262,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
         <v>246</v>
       </c>
@@ -21273,7 +21274,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
         <v>247</v>
       </c>
@@ -21284,8 +21285,12 @@
         <f t="shared" si="3"/>
         <v>256</v>
       </c>
-    </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H248" s="3">
+        <f>colleges!D385/students!B255</f>
+        <v>0.8142151955538679</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
         <v>248</v>
       </c>
@@ -21297,7 +21302,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
         <v>249</v>
       </c>
@@ -21309,7 +21314,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
         <v>250</v>
       </c>
@@ -21321,7 +21326,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
         <v>251</v>
       </c>
@@ -21333,7 +21338,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
         <v>252</v>
       </c>
@@ -21345,7 +21350,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
         <v>253</v>
       </c>
@@ -21357,11 +21362,11 @@
         <v>264</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="B255" s="2">
+      <c r="B255" s="5">
         <v>28969</v>
       </c>
       <c r="C255" s="3">
@@ -21376,7 +21381,7 @@
         <v>16026</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
         <v>255</v>
       </c>
@@ -23235,10 +23240,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B49F6A7-A17C-8845-91CC-E5E3EB57935A}">
-  <dimension ref="A1:M382"/>
+  <dimension ref="A1:M385"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A361" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView topLeftCell="A361" workbookViewId="0">
+      <selection activeCell="I368" sqref="I368"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -35255,6 +35260,12 @@
       </c>
       <c r="F382" s="7"/>
       <c r="G382" s="6"/>
+    </row>
+    <row r="385" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D385" s="14">
+        <f>SUM(D3:D382)</f>
+        <v>23587</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
